--- a/output/fit_clients/fit_round_464.xlsx
+++ b/output/fit_clients/fit_round_464.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2053278277.070438</v>
+        <v>1636863806.602227</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1013066856143864</v>
+        <v>0.1011116926757422</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02855998087071253</v>
+        <v>0.03588420677049798</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1026639141.362724</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2430918517.002704</v>
+        <v>2546133193.986636</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1779211678201553</v>
+        <v>0.1505442526504285</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03833367727951909</v>
+        <v>0.04239121365973766</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1215459365.316342</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4790194255.174524</v>
+        <v>5000984704.718557</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1078578900672376</v>
+        <v>0.1317934244861688</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0239500388671526</v>
+        <v>0.02646579777630222</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>168</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2395097197.766521</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3732486798.702807</v>
+        <v>3778498762.567854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09857006082880049</v>
+        <v>0.07598351644395922</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03236228976666095</v>
+        <v>0.04937740669287777</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>172</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1866243420.794785</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1852088785.011851</v>
+        <v>1940166494.796399</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1325974372677718</v>
+        <v>0.1164129957904684</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04991071470111833</v>
+        <v>0.05199469158096001</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>926044438.1290443</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3149321792.713399</v>
+        <v>2999672214.359869</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06394027914680712</v>
+        <v>0.07181287192669247</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04327020492608415</v>
+        <v>0.03752982215499246</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>146</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1574660846.906198</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3100031100.839921</v>
+        <v>3819263036.01567</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1997170376727948</v>
+        <v>0.1934102867305243</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02265745129783506</v>
+        <v>0.03069638591264457</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>148</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1550015618.182174</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2117816688.815778</v>
+        <v>1893439171.03913</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1250059469908263</v>
+        <v>0.1480027859389905</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02387414578440762</v>
+        <v>0.02790686843414608</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1058908354.691899</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4770742643.819699</v>
+        <v>4842829241.607102</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1805692335445552</v>
+        <v>0.2060250573754902</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03490487625506154</v>
+        <v>0.04969314949994141</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>196</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2385371403.470393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4063929519.714665</v>
+        <v>3256743252.275862</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1348814491570517</v>
+        <v>0.15920769212845</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03838861067364804</v>
+        <v>0.03753398425251582</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>192</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2031964777.0141</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2869687723.899411</v>
+        <v>2997531866.466839</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1361232925739964</v>
+        <v>0.1248647003863118</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04213921794537664</v>
+        <v>0.04458268737061367</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>157</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1434843868.052394</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5260156831.64829</v>
+        <v>3838816573.655245</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1017547069705427</v>
+        <v>0.06705278761361198</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02633532415944477</v>
+        <v>0.02224146841758842</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>156</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2630078406.768373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3177852515.114251</v>
+        <v>3199466795.405426</v>
       </c>
       <c r="F14" t="n">
-        <v>0.117610929553386</v>
+        <v>0.1463474063247568</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03824456335270683</v>
+        <v>0.03041185558930322</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>149</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1588926279.135372</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1738316345.026416</v>
+        <v>1483472874.173103</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07784002893984486</v>
+        <v>0.07970600153998651</v>
       </c>
       <c r="G15" t="n">
-        <v>0.039229834533288</v>
+        <v>0.04428702370868929</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>869158312.063193</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2144706675.070354</v>
+        <v>2902603818.927701</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07385770230682222</v>
+        <v>0.07345248603363372</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04184293102274909</v>
+        <v>0.04924311608846415</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>95</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1072353400.126574</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5306970301.33478</v>
+        <v>5228233405.326238</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1739309457887286</v>
+        <v>0.1072419022175386</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04204409734887986</v>
+        <v>0.04015151043069225</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>136</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2653485120.643929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3511742088.116286</v>
+        <v>2552504805.834321</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1715825912968519</v>
+        <v>0.1749575078983128</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0312990064533856</v>
+        <v>0.03013843590329447</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>152</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1755871037.341041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1068893047.403216</v>
+        <v>893504516.3109733</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1174305300136008</v>
+        <v>0.1573564982157049</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02487909734352699</v>
+        <v>0.02697005573041978</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>534446569.7319762</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2250087457.836067</v>
+        <v>2472747254.225632</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1569852795325978</v>
+        <v>0.1546455564178191</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03156584475719929</v>
+        <v>0.02061836801136109</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>65</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1125043728.652265</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2445972673.453822</v>
+        <v>1909078744.627289</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09835544945945114</v>
+        <v>0.06310307153961479</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03614409725328498</v>
+        <v>0.03296383837850778</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1222986330.019984</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2838586351.640884</v>
+        <v>3531422956.915994</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1084906437144283</v>
+        <v>0.1121291342485924</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04580113216230185</v>
+        <v>0.03551387533954876</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1419293247.038929</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1089745727.933195</v>
+        <v>1349847281.698008</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810937639044812</v>
+        <v>0.1528462362507312</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04771581443369796</v>
+        <v>0.04184037570165226</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>544872919.042327</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2597452733.834042</v>
+        <v>3825707011.239079</v>
       </c>
       <c r="F24" t="n">
-        <v>0.124416001122065</v>
+        <v>0.1412946265469986</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02956662935263099</v>
+        <v>0.03423994477268709</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>136</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1298726429.2516</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1438517080.824434</v>
+        <v>1037451199.141862</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07643419439323186</v>
+        <v>0.09025858468654885</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02679780647768444</v>
+        <v>0.02928491814391829</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>719258503.5179818</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1340642228.298714</v>
+        <v>1147529656.432252</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1222491128194733</v>
+        <v>0.08628674925174597</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03637361832674915</v>
+        <v>0.03587893786414893</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>670321169.5978781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4209950295.482052</v>
+        <v>3648770876.809102</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1450036142286138</v>
+        <v>0.1124865789741202</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02692728392323737</v>
+        <v>0.0235886588564806</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>109</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2104975147.484888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3699586541.058853</v>
+        <v>2695538230.49264</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1123658631603079</v>
+        <v>0.1272028548546854</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04049006243468376</v>
+        <v>0.03354621247826272</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>149</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1849793342.532882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5724751541.148381</v>
+        <v>4407789789.907615</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09986769248545313</v>
+        <v>0.1288812544238586</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03808854243915714</v>
+        <v>0.03688555268400444</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>205</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2862375667.909253</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1942366609.723141</v>
+        <v>1803559439.266023</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1280130376467454</v>
+        <v>0.1270565043030078</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03839243673033507</v>
+        <v>0.04027174409721396</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>971183335.7613835</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1026565229.983155</v>
+        <v>1361060069.250888</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09550534408142144</v>
+        <v>0.1071436618229509</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03604832772248953</v>
+        <v>0.04437205389594161</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>513282607.3016976</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1395370587.41056</v>
+        <v>1182273867.037005</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07752685325920873</v>
+        <v>0.1022642279772468</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03789174452381985</v>
+        <v>0.03754940112267621</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>697685340.4126043</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2645455207.850377</v>
+        <v>2487898610.070714</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1703671444640393</v>
+        <v>0.1322193212894807</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05757964063674412</v>
+        <v>0.05707779430453185</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>142</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1322727629.789515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1225651572.62423</v>
+        <v>1460815451.876704</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08868645835392681</v>
+        <v>0.08178642430085289</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02647622718558421</v>
+        <v>0.01737054242807385</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>612825787.1510203</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1322195613.017321</v>
+        <v>991865182.7155893</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1108990053723548</v>
+        <v>0.07667794500214373</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03645409161222284</v>
+        <v>0.03398496080762715</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>661097754.4559931</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2987742526.635475</v>
+        <v>2264314950.796254</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1324771366027418</v>
+        <v>0.1663616149191203</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01866004905341253</v>
+        <v>0.02072348042718927</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>117</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1493871246.215178</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2122896883.996518</v>
+        <v>2942778741.057693</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1102903996408994</v>
+        <v>0.1063891106054942</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0275306527539593</v>
+        <v>0.0403882412407188</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>125</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1061448486.199412</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1947728537.992102</v>
+        <v>1684194100.071858</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08849789611787744</v>
+        <v>0.1072038900222778</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02523836178201111</v>
+        <v>0.03336978674945552</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>973864255.0268328</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1982375721.198532</v>
+        <v>2129034696.435894</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1389911107579298</v>
+        <v>0.1855743143016927</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0313743398733918</v>
+        <v>0.02099024492087209</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>991187857.8650728</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1386605330.530273</v>
+        <v>1279194565.901029</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1618445263522226</v>
+        <v>0.1292772286155058</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04244730597807773</v>
+        <v>0.05551253677089803</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>693302659.8637273</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2157806230.677748</v>
+        <v>2080452113.026645</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1269437986191629</v>
+        <v>0.1019377895774939</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04109187442296265</v>
+        <v>0.03164889238990007</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>112</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1078903174.116361</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2937095462.959937</v>
+        <v>3270972177.590739</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1072866217167412</v>
+        <v>0.1133480656157652</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03103253649334627</v>
+        <v>0.03342811254132989</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>151</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1468547687.604971</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2392168804.38339</v>
+        <v>2189536441.601409</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1286046053874719</v>
+        <v>0.1952640840473301</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02386835234333034</v>
+        <v>0.02547083763754518</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>162</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1196084461.725472</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2123599786.015964</v>
+        <v>1656909371.5169</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09589872813740603</v>
+        <v>0.06656167091530268</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02965764663020685</v>
+        <v>0.03070969034221135</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1061800024.033502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1828320544.428933</v>
+        <v>2347810037.796001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1919071427184211</v>
+        <v>0.1381011383102742</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03477668627440666</v>
+        <v>0.04829284649398798</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>914160245.8012584</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5056923813.64832</v>
+        <v>4736116615.139229</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1415109993839814</v>
+        <v>0.1420257070658767</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05903522972920769</v>
+        <v>0.04453006757051411</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>165</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2528461936.902193</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3636288983.44087</v>
+        <v>4837594591.433877</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1483765276968687</v>
+        <v>0.1702573314817178</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03975266387047561</v>
+        <v>0.0494195509533272</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>125</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1818144470.272484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3683047797.578176</v>
+        <v>3350639499.187309</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08266705235495744</v>
+        <v>0.1103516557077814</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03763407803257867</v>
+        <v>0.03075265675496848</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>151</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1841523951.577764</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1310975859.446134</v>
+        <v>1563337814.640444</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1607658129052923</v>
+        <v>0.167751847492848</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04159159590916897</v>
+        <v>0.03701544722285242</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>655487991.1658227</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3842158007.307054</v>
+        <v>3938529352.288335</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1392749420475136</v>
+        <v>0.1760448685189748</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05194998398026468</v>
+        <v>0.03841811519598622</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>158</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1921079003.613336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1088381809.906041</v>
+        <v>1052186581.155879</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1235498786427595</v>
+        <v>0.1517296210090409</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03874506215520974</v>
+        <v>0.04102402955935608</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>544190974.6159782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4118790892.84292</v>
+        <v>3402463378.94297</v>
       </c>
       <c r="F52" t="n">
-        <v>0.127295040430925</v>
+        <v>0.1025731909027477</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03945379115618868</v>
+        <v>0.03915295024102797</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>191</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2059395495.928925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2439681377.858006</v>
+        <v>3697416550.654126</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1657078850196933</v>
+        <v>0.1257438063825871</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03182351553252747</v>
+        <v>0.02978473323161633</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>134</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1219840760.103292</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3969084700.807688</v>
+        <v>4589927425.697374</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1095192468026595</v>
+        <v>0.1315450425693467</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03560626690329357</v>
+        <v>0.03594508035278516</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>150</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1984542412.052618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4212225439.57631</v>
+        <v>4851054129.837331</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2113698634503024</v>
+        <v>0.1830922805472783</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02789062820198113</v>
+        <v>0.02429847644817801</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>132</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2106112704.111692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1534781610.284364</v>
+        <v>1485406217.574056</v>
       </c>
       <c r="F56" t="n">
-        <v>0.10812905415069</v>
+        <v>0.1546868011307117</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0559605555561915</v>
+        <v>0.04121513572494932</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>767390842.28241</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2946306942.378236</v>
+        <v>4500441542.046381</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1268244029335565</v>
+        <v>0.1147466161363157</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02384713116873527</v>
+        <v>0.01831492722804475</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>147</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1473153471.107325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1887311869.061554</v>
+        <v>1409520385.439406</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1681914629643484</v>
+        <v>0.197190771731978</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03937968736270613</v>
+        <v>0.03333039025677963</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>943655930.358164</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4399674919.782164</v>
+        <v>5315482569.311503</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1182489845715893</v>
+        <v>0.07882125458949632</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03362363912154193</v>
+        <v>0.03380058852157532</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2199837416.56502</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3220466793.847616</v>
+        <v>3542271897.201836</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1383785207305642</v>
+        <v>0.1507639176620876</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02040171136293636</v>
+        <v>0.02616007939077711</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1610233490.419416</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3124522245.162596</v>
+        <v>2851190141.748838</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1635348943307794</v>
+        <v>0.1238435864717177</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02005131011774542</v>
+        <v>0.02346674446680327</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>159</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1562261091.32344</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1651084045.738546</v>
+        <v>1445496865.10763</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1714946596454663</v>
+        <v>0.1895441280432479</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0315343854201728</v>
+        <v>0.03937564464260855</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>825542028.625443</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5000627432.033122</v>
+        <v>3987491490.85667</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09822493936456589</v>
+        <v>0.0756434107275947</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04689409039419639</v>
+        <v>0.0309268724538208</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2500313733.761314</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3371222312.026223</v>
+        <v>5311961207.76735</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1888055506194083</v>
+        <v>0.116934261235858</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02304441504313036</v>
+        <v>0.03047089795860659</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>144</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1685611147.665666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4521880548.468615</v>
+        <v>5311399238.080039</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1656166287605562</v>
+        <v>0.1483680785671965</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02767984096394866</v>
+        <v>0.02330761994468156</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>166</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2260940261.700902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4548957556.140719</v>
+        <v>5644352044.669122</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1218898551621714</v>
+        <v>0.1129607684478081</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04377643679132879</v>
+        <v>0.03519172478253615</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>135</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2274478781.067879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2855324074.155238</v>
+        <v>3348615175.046352</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09141484453325148</v>
+        <v>0.0855507371880302</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05150673053221323</v>
+        <v>0.03389448436585057</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>149</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1427662067.614583</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3888677587.235109</v>
+        <v>5570284021.027623</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1193958273613416</v>
+        <v>0.1469184126831067</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04973348088578436</v>
+        <v>0.03983056070556184</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>148</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1944338782.672169</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2417100011.720675</v>
+        <v>2393609009.1812</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1274650147512073</v>
+        <v>0.1562733332941831</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03928345683614003</v>
+        <v>0.05539497852667476</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1208550064.744163</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2544930381.016604</v>
+        <v>2681362025.46071</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08161165453453817</v>
+        <v>0.1022025414863329</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0489476796875145</v>
+        <v>0.03019809404292555</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>134</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1272465137.862583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5524231193.752422</v>
+        <v>4491521825.072562</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1801643519947638</v>
+        <v>0.1678421058730161</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0310718422886857</v>
+        <v>0.02405381463989891</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>169</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2762115741.776156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1405610556.019779</v>
+        <v>2160760495.947496</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08357779471575587</v>
+        <v>0.09265679305081961</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03467841195430296</v>
+        <v>0.0387681726559603</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>702805320.2092409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3364478058.577016</v>
+        <v>2207788342.780059</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06910229691830774</v>
+        <v>0.06928081768094085</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03550845070381161</v>
+        <v>0.04265476912804279</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>175</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1682238991.912792</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3429126802.097856</v>
+        <v>2940589226.914233</v>
       </c>
       <c r="F74" t="n">
-        <v>0.128600773872576</v>
+        <v>0.1548455633718573</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03372763187707749</v>
+        <v>0.02725504843937896</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>158</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1714563429.380388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1648921674.916333</v>
+        <v>1705007040.252184</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1307395621845761</v>
+        <v>0.1280379222346561</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03780210137546841</v>
+        <v>0.0229784541884932</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>824460834.6368003</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4238975865.191437</v>
+        <v>5295909168.372611</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07947298196116538</v>
+        <v>0.1180099277641803</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02251419201987311</v>
+        <v>0.02433269438379202</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2119487927.35441</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1753628760.538664</v>
+        <v>1918804460.551796</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1628688369607713</v>
+        <v>0.1277911324148981</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02002855905618632</v>
+        <v>0.02763897338736419</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>876814405.4236281</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3345934418.10978</v>
+        <v>4587942972.784802</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1066733676464515</v>
+        <v>0.09086981086987769</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04255614212523168</v>
+        <v>0.03518833690293071</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>161</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1672967221.620656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1682118998.91233</v>
+        <v>1226521164.348862</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1091483009206661</v>
+        <v>0.1496853679553695</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02943713928132537</v>
+        <v>0.03677982839600434</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>841059565.5597031</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4797380670.882337</v>
+        <v>5478762972.895097</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09639185226612104</v>
+        <v>0.0721405676394191</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02773259035251918</v>
+        <v>0.02428946052675268</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2398690374.610051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3922694538.659917</v>
+        <v>4760261308.190455</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09905335168452185</v>
+        <v>0.1107171315316778</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02486717522847309</v>
+        <v>0.0324932587738676</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1961347229.675926</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4210679323.308422</v>
+        <v>5316556384.423162</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1797097927329876</v>
+        <v>0.1856219881757286</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01880794990625927</v>
+        <v>0.01921760616417226</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>162</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2105339689.679062</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1587280600.582606</v>
+        <v>1883357792.138543</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1334897675035683</v>
+        <v>0.1172999405136839</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02907288298516503</v>
+        <v>0.03956925713586546</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>793640234.2226611</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2586052139.669927</v>
+        <v>2199829688.851091</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08486358903875826</v>
+        <v>0.07740329521734023</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04352126772108589</v>
+        <v>0.03875386411108494</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1293025989.086894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2360268749.09096</v>
+        <v>3306784440.57362</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1541469656477717</v>
+        <v>0.1583331682976853</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0465056299912017</v>
+        <v>0.04793847374439675</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>173</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1180134364.118241</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2792160155.89787</v>
+        <v>2735416200.010639</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1071175724570046</v>
+        <v>0.1439015463840771</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02674307672686116</v>
+        <v>0.02060588427452133</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>57</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1396080215.7515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>926377876.8172629</v>
+        <v>1204143701.362171</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1335819857634809</v>
+        <v>0.1623293149743345</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03789666944331528</v>
+        <v>0.02727113077053987</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>463188923.8824928</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2729690930.703552</v>
+        <v>3378751944.793832</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1428170530548147</v>
+        <v>0.1128114630517739</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03623835072089845</v>
+        <v>0.02695801324492186</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>185</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1364845469.09399</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2604869507.250522</v>
+        <v>3137531045.897947</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1048994064364377</v>
+        <v>0.1467361799841556</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03830600784560693</v>
+        <v>0.03159635813971044</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>157</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1302434820.734052</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1905074498.102364</v>
+        <v>1869515376.527753</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1195186310602937</v>
+        <v>0.1372611455426779</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03494426141742932</v>
+        <v>0.04615574700963532</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>952537301.9146528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1310073254.297609</v>
+        <v>1457640131.533294</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1942305954073116</v>
+        <v>0.1453024959162139</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04421727658620768</v>
+        <v>0.05463864443326556</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>655036691.3840206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2870484009.745367</v>
+        <v>2597017771.016356</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1092511802564253</v>
+        <v>0.08255190101027673</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04586110654840442</v>
+        <v>0.03946618795460454</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>127</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1435242016.841612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4391066751.857096</v>
+        <v>3048533325.737595</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0872126142981438</v>
+        <v>0.1263774749580106</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04613208341072999</v>
+        <v>0.04612453539116302</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2195533351.278049</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2182623246.915899</v>
+        <v>2249154485.88694</v>
       </c>
       <c r="F94" t="n">
-        <v>0.119280911203938</v>
+        <v>0.1474041219505193</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04264713166587524</v>
+        <v>0.03274576772611062</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1091311645.608568</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3045015321.444811</v>
+        <v>2059025331.103171</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1134137700470762</v>
+        <v>0.106335951484221</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03979783556136628</v>
+        <v>0.04772014030700326</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>111</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1522507657.190338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1988754584.737472</v>
+        <v>1457843360.968111</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1291350712356775</v>
+        <v>0.1095710027179855</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03202475153059555</v>
+        <v>0.03317591968947882</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>994377280.5619379</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4742148021.924756</v>
+        <v>4000052815.248764</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1649572099116145</v>
+        <v>0.1442551862800619</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02144049839404544</v>
+        <v>0.02052093758423549</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>149</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2371074127.043003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3370658566.803776</v>
+        <v>3835129110.906025</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09267677850314163</v>
+        <v>0.129020557678694</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03141748418263619</v>
+        <v>0.02000515537554714</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>124</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1685329293.235654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3355036803.829856</v>
+        <v>2744000672.110261</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1120024620732371</v>
+        <v>0.08970363158943757</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0320683542443229</v>
+        <v>0.02933972205752919</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1677518413.5782</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4404227555.390987</v>
+        <v>3449568222.137625</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1663912578341566</v>
+        <v>0.1722302274229595</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02380770347774766</v>
+        <v>0.02111667372806626</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>141</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2202113880.660754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2435941493.141452</v>
+        <v>2942974655.180129</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1757524139888835</v>
+        <v>0.2001806457991086</v>
       </c>
       <c r="G101" t="n">
-        <v>0.056928349007282</v>
+        <v>0.04796567310595098</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>191</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1217970761.092339</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_464.xlsx
+++ b/output/fit_clients/fit_round_464.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1636863806.602227</v>
+        <v>1864196194.463932</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1011116926757422</v>
+        <v>0.09916713474715678</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03588420677049798</v>
+        <v>0.04553853409716863</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2546133193.986636</v>
+        <v>2044320948.612469</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1505442526504285</v>
+        <v>0.1349058562539725</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04239121365973766</v>
+        <v>0.03893196171330802</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5000984704.718557</v>
+        <v>4615904981.168444</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1317934244861688</v>
+        <v>0.1328005363489904</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02646579777630222</v>
+        <v>0.02811905600731089</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3778498762.567854</v>
+        <v>4112322529.570216</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07598351644395922</v>
+        <v>0.07309699090658157</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04937740669287777</v>
+        <v>0.0391387307355578</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1940166494.796399</v>
+        <v>2667769209.300953</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1164129957904684</v>
+        <v>0.1017015213468568</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05199469158096001</v>
+        <v>0.03435370522575198</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2999672214.359869</v>
+        <v>2707773118.64735</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07181287192669247</v>
+        <v>0.08902759543410389</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03752982215499246</v>
+        <v>0.03471732548770276</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3819263036.01567</v>
+        <v>3959399885.289509</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1934102867305243</v>
+        <v>0.1544128435713834</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03069638591264457</v>
+        <v>0.03016245313270974</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1893439171.03913</v>
+        <v>2197834791.184436</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1480027859389905</v>
+        <v>0.1208111792800789</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02790686843414608</v>
+        <v>0.03546158360000928</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4842829241.607102</v>
+        <v>5000317335.199635</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2060250573754902</v>
+        <v>0.1924851585615105</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04969314949994141</v>
+        <v>0.04717334641550746</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3256743252.275862</v>
+        <v>3118540750.006109</v>
       </c>
       <c r="F11" t="n">
-        <v>0.15920769212845</v>
+        <v>0.1694220203348853</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03753398425251582</v>
+        <v>0.03323473734365418</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2997531866.466839</v>
+        <v>2355512914.629584</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1248647003863118</v>
+        <v>0.1665600501992587</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04458268737061367</v>
+        <v>0.0523804482385463</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3838816573.655245</v>
+        <v>4725886680.762776</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06705278761361198</v>
+        <v>0.06441623757072908</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02224146841758842</v>
+        <v>0.02194749236056467</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3199466795.405426</v>
+        <v>3783672598.79199</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1463474063247568</v>
+        <v>0.1301498173596711</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03041185558930322</v>
+        <v>0.02698869425528562</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1483472874.173103</v>
+        <v>1842118940.056455</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07970600153998651</v>
+        <v>0.08743173328278374</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04428702370868929</v>
+        <v>0.04334465934447612</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2902603818.927701</v>
+        <v>2358805019.280577</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07345248603363372</v>
+        <v>0.1090716719137276</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04924311608846415</v>
+        <v>0.03578325972345256</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5228233405.326238</v>
+        <v>3243851831.753025</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1072419022175386</v>
+        <v>0.1666259654277453</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04015151043069225</v>
+        <v>0.03414349344349368</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2552504805.834321</v>
+        <v>2551197818.253634</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1749575078983128</v>
+        <v>0.1796996840684918</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03013843590329447</v>
+        <v>0.03273232809025932</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>893504516.3109733</v>
+        <v>1007096662.477561</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1573564982157049</v>
+        <v>0.1877654577841545</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02697005573041978</v>
+        <v>0.02054518285479003</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2472747254.225632</v>
+        <v>2443902732.857209</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1546455564178191</v>
+        <v>0.1545228571448076</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02061836801136109</v>
+        <v>0.02629947764709803</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1909078744.627289</v>
+        <v>2709540840.557559</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06310307153961479</v>
+        <v>0.0671505176618393</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03296383837850778</v>
+        <v>0.03375074021219929</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3531422956.915994</v>
+        <v>3561276159.129197</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1121291342485924</v>
+        <v>0.1249567000659974</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03551387533954876</v>
+        <v>0.05033001879871087</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1349847281.698008</v>
+        <v>1087369625.051204</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1528462362507312</v>
+        <v>0.1778231468935817</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04184037570165226</v>
+        <v>0.04513566774521657</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3825707011.239079</v>
+        <v>4093472773.71982</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1412946265469986</v>
+        <v>0.09781751884085185</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03423994477268709</v>
+        <v>0.02536593132981247</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1037451199.141862</v>
+        <v>987800537.4833177</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09025858468654885</v>
+        <v>0.1144615815049992</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02928491814391829</v>
+        <v>0.02498505952693968</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1147529656.432252</v>
+        <v>1418301445.152613</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08628674925174597</v>
+        <v>0.09721107112057402</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03587893786414893</v>
+        <v>0.0341015931070883</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3648770876.809102</v>
+        <v>3032173620.251411</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1124865789741202</v>
+        <v>0.1321254460078742</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0235886588564806</v>
+        <v>0.02707127660428605</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2695538230.49264</v>
+        <v>2361024499.579841</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1272028548546854</v>
+        <v>0.1198243985922766</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03354621247826272</v>
+        <v>0.03072490862832364</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4407789789.907615</v>
+        <v>5352233987.230226</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1288812544238586</v>
+        <v>0.1494545536655615</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03688555268400444</v>
+        <v>0.03309187202229651</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1803559439.266023</v>
+        <v>2171383320.121722</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1270565043030078</v>
+        <v>0.1100996787298146</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04027174409721396</v>
+        <v>0.02723361425709006</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1361060069.250888</v>
+        <v>1475521384.987411</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1071436618229509</v>
+        <v>0.1055164524975321</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04437205389594161</v>
+        <v>0.04531036578542933</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1182273867.037005</v>
+        <v>1876931512.406008</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1022642279772468</v>
+        <v>0.1136106380865164</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03754940112267621</v>
+        <v>0.03425960911321849</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2487898610.070714</v>
+        <v>1993576642.910323</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1322193212894807</v>
+        <v>0.2062274420013902</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05707779430453185</v>
+        <v>0.0573638280513254</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1460815451.876704</v>
+        <v>1257673440.670659</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08178642430085289</v>
+        <v>0.11477055142161</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01737054242807385</v>
+        <v>0.02228308142386009</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>991865182.7155893</v>
+        <v>913141782.6466569</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07667794500214373</v>
+        <v>0.08497012338974809</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03398496080762715</v>
+        <v>0.03163885439560213</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2264314950.796254</v>
+        <v>2720521241.403802</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1663616149191203</v>
+        <v>0.1719404090455026</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02072348042718927</v>
+        <v>0.01954509945929875</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2942778741.057693</v>
+        <v>2187870053.629411</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1063891106054942</v>
+        <v>0.1041217539050713</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0403882412407188</v>
+        <v>0.03321020276589803</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1684194100.071858</v>
+        <v>1767450279.341613</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1072038900222778</v>
+        <v>0.07506703953723823</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03336978674945552</v>
+        <v>0.02810480526905509</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2129034696.435894</v>
+        <v>1553419836.731676</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1855743143016927</v>
+        <v>0.1276443391224384</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02099024492087209</v>
+        <v>0.02684477537916436</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1279194565.901029</v>
+        <v>1380345661.571691</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1292772286155058</v>
+        <v>0.1095722465109736</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05551253677089803</v>
+        <v>0.04642146653555313</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2080452113.026645</v>
+        <v>1870560342.776251</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1019377895774939</v>
+        <v>0.1192336613753985</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03164889238990007</v>
+        <v>0.03704227207607134</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3270972177.590739</v>
+        <v>3153614226.601615</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1133480656157652</v>
+        <v>0.09106124320783134</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03342811254132989</v>
+        <v>0.03635130609573234</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2189536441.601409</v>
+        <v>2825785657.342679</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1952640840473301</v>
+        <v>0.1363648003066969</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02547083763754518</v>
+        <v>0.0182062422966294</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1656909371.5169</v>
+        <v>1462594271.358736</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06656167091530268</v>
+        <v>0.07326806197511831</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03070969034221135</v>
+        <v>0.02992599735193319</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2347810037.796001</v>
+        <v>2206289715.688394</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1381011383102742</v>
+        <v>0.1432939658042721</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04829284649398798</v>
+        <v>0.05498297929184885</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4736116615.139229</v>
+        <v>4724554866.887568</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1420257070658767</v>
+        <v>0.1540411805323545</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04453006757051411</v>
+        <v>0.03778520603284598</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4837594591.433877</v>
+        <v>4194773706.086193</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1702573314817178</v>
+        <v>0.190690265746269</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0494195509533272</v>
+        <v>0.04926722781924749</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3350639499.187309</v>
+        <v>3449686929.117381</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1103516557077814</v>
+        <v>0.08966443475758347</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03075265675496848</v>
+        <v>0.03853922581682709</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1563337814.640444</v>
+        <v>1578793770.348739</v>
       </c>
       <c r="F49" t="n">
-        <v>0.167751847492848</v>
+        <v>0.1846038472723503</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03701544722285242</v>
+        <v>0.02944221928436311</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3938529352.288335</v>
+        <v>2686085293.698383</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1760448685189748</v>
+        <v>0.1280762062736552</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03841811519598622</v>
+        <v>0.04457620712723733</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1052186581.155879</v>
+        <v>1453585281.666952</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1517296210090409</v>
+        <v>0.1493466349484095</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04102402955935608</v>
+        <v>0.04129001851606782</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3402463378.94297</v>
+        <v>3380318823.866463</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1025731909027477</v>
+        <v>0.1002988436591171</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03915295024102797</v>
+        <v>0.05497199322095686</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3697416550.654126</v>
+        <v>2471156558.731945</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1257438063825871</v>
+        <v>0.1887586195067378</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02978473323161633</v>
+        <v>0.02436679670798512</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4589927425.697374</v>
+        <v>4575438576.31749</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1315450425693467</v>
+        <v>0.113585861706009</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03594508035278516</v>
+        <v>0.04666763600771625</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4851054129.837331</v>
+        <v>3852071997.197752</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1830922805472783</v>
+        <v>0.1515442552854963</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02429847644817801</v>
+        <v>0.02072255383457648</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1485406217.574056</v>
+        <v>1865601399.245179</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1546868011307117</v>
+        <v>0.1123110931015102</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04121513572494932</v>
+        <v>0.03869702888072445</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4500441542.046381</v>
+        <v>3705732162.118815</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1147466161363157</v>
+        <v>0.1548137508209214</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01831492722804475</v>
+        <v>0.0170194262202456</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1409520385.439406</v>
+        <v>1826806998.229524</v>
       </c>
       <c r="F58" t="n">
-        <v>0.197190771731978</v>
+        <v>0.1323627263681798</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03333039025677963</v>
+        <v>0.02681113697299124</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5315482569.311503</v>
+        <v>3473479064.127359</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07882125458949632</v>
+        <v>0.1168899466592141</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03380058852157532</v>
+        <v>0.03565682156849916</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3542271897.201836</v>
+        <v>2782964864.167607</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1507639176620876</v>
+        <v>0.1249345415425713</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02616007939077711</v>
+        <v>0.03324371372230495</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2851190141.748838</v>
+        <v>3194357859.120636</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1238435864717177</v>
+        <v>0.135666791644334</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02346674446680327</v>
+        <v>0.0254807563935555</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1445496865.10763</v>
+        <v>1422944938.371346</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1895441280432479</v>
+        <v>0.1564859721884412</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03937564464260855</v>
+        <v>0.04334202345585414</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3987491490.85667</v>
+        <v>3769131322.039798</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0756434107275947</v>
+        <v>0.08727282168656891</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0309268724538208</v>
+        <v>0.0298866822989146</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5311961207.76735</v>
+        <v>5185156453.674015</v>
       </c>
       <c r="F64" t="n">
-        <v>0.116934261235858</v>
+        <v>0.133732878242411</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03047089795860659</v>
+        <v>0.03342045988053584</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5311399238.080039</v>
+        <v>3649907374.559175</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1483680785671965</v>
+        <v>0.1226700392208595</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02330761994468156</v>
+        <v>0.03105080264628225</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5644352044.669122</v>
+        <v>3821299549.843688</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1129607684478081</v>
+        <v>0.1622675563282102</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03519172478253615</v>
+        <v>0.03447610783023608</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3348615175.046352</v>
+        <v>3367582682.460245</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0855507371880302</v>
+        <v>0.09786200325792005</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03389448436585057</v>
+        <v>0.04870746271575774</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5570284021.027623</v>
+        <v>4769368592.80461</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1469184126831067</v>
+        <v>0.131397891453104</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03983056070556184</v>
+        <v>0.03996432777524336</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2393609009.1812</v>
+        <v>2346627081.593514</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1562733332941831</v>
+        <v>0.1163057280506708</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05539497852667476</v>
+        <v>0.05211663045446648</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2681362025.46071</v>
+        <v>2799858783.858986</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1022025414863329</v>
+        <v>0.07412530652970899</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03019809404292555</v>
+        <v>0.03879861582837618</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4491521825.072562</v>
+        <v>5573775529.093138</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1678421058730161</v>
+        <v>0.1126040727820968</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02405381463989891</v>
+        <v>0.02637285217260313</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2160760495.947496</v>
+        <v>1514408027.880025</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09265679305081961</v>
+        <v>0.0957820591721625</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0387681726559603</v>
+        <v>0.03939533323348323</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2207788342.780059</v>
+        <v>2542044225.355748</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06928081768094085</v>
+        <v>0.08194629872718399</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04265476912804279</v>
+        <v>0.04566578443504816</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2940589226.914233</v>
+        <v>2472093984.469869</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1548455633718573</v>
+        <v>0.150689654980614</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02725504843937896</v>
+        <v>0.03386170207119905</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1705007040.252184</v>
+        <v>2064365821.848817</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1280379222346561</v>
+        <v>0.1075362220132592</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0229784541884932</v>
+        <v>0.02392200232188221</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5295909168.372611</v>
+        <v>4880006680.143318</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1180099277641803</v>
+        <v>0.1224357358357643</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02433269438379202</v>
+        <v>0.03372766788256466</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1918804460.551796</v>
+        <v>1987388281.477674</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1277911324148981</v>
+        <v>0.1868894739639751</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02763897338736419</v>
+        <v>0.02421462889617932</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4587942972.784802</v>
+        <v>4587789537.944992</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09086981086987769</v>
+        <v>0.09346832671284346</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03518833690293071</v>
+        <v>0.04950507375788912</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1226521164.348862</v>
+        <v>1707420888.641075</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1496853679553695</v>
+        <v>0.1318871482512984</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03677982839600434</v>
+        <v>0.02982575906120243</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5478762972.895097</v>
+        <v>4911752586.025541</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0721405676394191</v>
+        <v>0.0794844384870451</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02428946052675268</v>
+        <v>0.03150091192193562</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4760261308.190455</v>
+        <v>4650231386.971582</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1107171315316778</v>
+        <v>0.1360278019892108</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0324932587738676</v>
+        <v>0.03150867785915229</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5316556384.423162</v>
+        <v>5381462625.62109</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1856219881757286</v>
+        <v>0.1660796631763454</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01921760616417226</v>
+        <v>0.01916223781135611</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1883357792.138543</v>
+        <v>2108937720.859491</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1172999405136839</v>
+        <v>0.1083865569765156</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03956925713586546</v>
+        <v>0.04447622828925207</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2199829688.851091</v>
+        <v>2099319618.252986</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07740329521734023</v>
+        <v>0.1081595755402665</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03875386411108494</v>
+        <v>0.04519613090008261</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3306784440.57362</v>
+        <v>3078125110.317544</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1583331682976853</v>
+        <v>0.114912103695937</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04793847374439675</v>
+        <v>0.03847255979041903</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2735416200.010639</v>
+        <v>2020222159.798734</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1439015463840771</v>
+        <v>0.1519380276859472</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02060588427452133</v>
+        <v>0.02416374936207072</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1204143701.362171</v>
+        <v>1500705341.418787</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1623293149743345</v>
+        <v>0.119419901408985</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02727113077053987</v>
+        <v>0.03352045125798446</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3378751944.793832</v>
+        <v>2955657265.786152</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1128114630517739</v>
+        <v>0.1357782266529075</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02695801324492186</v>
+        <v>0.03041726412529439</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3137531045.897947</v>
+        <v>2891336518.026655</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1467361799841556</v>
+        <v>0.119496953528598</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03159635813971044</v>
+        <v>0.03566308005163571</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1869515376.527753</v>
+        <v>1643656315.136302</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1372611455426779</v>
+        <v>0.09398725422988938</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04615574700963532</v>
+        <v>0.05206640182285053</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1457640131.533294</v>
+        <v>1829310251.056138</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1453024959162139</v>
+        <v>0.1717390749649954</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05463864443326556</v>
+        <v>0.06035283529106544</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2597017771.016356</v>
+        <v>2282208088.989425</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08255190101027673</v>
+        <v>0.09138396614400635</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03946618795460454</v>
+        <v>0.04034461097074466</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3048533325.737595</v>
+        <v>4029169824.419446</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1263774749580106</v>
+        <v>0.1356831392530725</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04612453539116302</v>
+        <v>0.04372000315747403</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2249154485.88694</v>
+        <v>1841805681.136047</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1474041219505193</v>
+        <v>0.1213086498803428</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03274576772611062</v>
+        <v>0.0371719209821495</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2059025331.103171</v>
+        <v>2906566871.540008</v>
       </c>
       <c r="F95" t="n">
-        <v>0.106335951484221</v>
+        <v>0.1174210323651072</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04772014030700326</v>
+        <v>0.0373038113498021</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1457843360.968111</v>
+        <v>2058661428.941692</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1095710027179855</v>
+        <v>0.1139614578202431</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03317591968947882</v>
+        <v>0.04242693197760505</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4000052815.248764</v>
+        <v>4615948276.435036</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1442551862800619</v>
+        <v>0.1624708537736953</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02052093758423549</v>
+        <v>0.01977794174565755</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3835129110.906025</v>
+        <v>2758758239.114842</v>
       </c>
       <c r="F98" t="n">
-        <v>0.129020557678694</v>
+        <v>0.1013563493182536</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02000515537554714</v>
+        <v>0.02252801134684872</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2744000672.110261</v>
+        <v>2829280259.34157</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08970363158943757</v>
+        <v>0.1406776199367016</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02933972205752919</v>
+        <v>0.03345823564900534</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3449568222.137625</v>
+        <v>4012031756.306123</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1722302274229595</v>
+        <v>0.1727517469444809</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02111667372806626</v>
+        <v>0.01842226172135543</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2942974655.180129</v>
+        <v>2173647593.930282</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2001806457991086</v>
+        <v>0.1507816737121732</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04796567310595098</v>
+        <v>0.04408682715149277</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_464.xlsx
+++ b/output/fit_clients/fit_round_464.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1864196194.463932</v>
+        <v>1765982363.565144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09916713474715678</v>
+        <v>0.1109325573443696</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04553853409716863</v>
+        <v>0.04046047639452187</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2044320948.612469</v>
+        <v>1979944974.654883</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1349058562539725</v>
+        <v>0.1326632514817691</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03893196171330802</v>
+        <v>0.03431646686622784</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4615904981.168444</v>
+        <v>3298473514.165253</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1328005363489904</v>
+        <v>0.1064717112595599</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02811905600731089</v>
+        <v>0.03333505258707555</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>235</v>
+      </c>
+      <c r="J4" t="n">
+        <v>462</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4112322529.570216</v>
+        <v>4093147138.617341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07309699090658157</v>
+        <v>0.08018968498838101</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0391387307355578</v>
+        <v>0.03740051074824752</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>195</v>
+      </c>
+      <c r="J5" t="n">
+        <v>464</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2667769209.300953</v>
+        <v>2558320786.646389</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1017015213468568</v>
+        <v>0.09333527789504212</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03435370522575198</v>
+        <v>0.05032423495321942</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2707773118.64735</v>
+        <v>2647971130.521023</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08902759543410389</v>
+        <v>0.09332471629223389</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03471732548770276</v>
+        <v>0.03335040285292699</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +711,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3959399885.289509</v>
+        <v>3591460552.650174</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1544128435713834</v>
+        <v>0.180084728903936</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03016245313270974</v>
+        <v>0.02360679744047167</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>131</v>
+      </c>
+      <c r="J8" t="n">
+        <v>464</v>
+      </c>
+      <c r="K8" t="n">
+        <v>38.17529784160592</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2197834791.184436</v>
+        <v>2223571230.98951</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1208111792800789</v>
+        <v>0.1565351998350577</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03546158360000928</v>
+        <v>0.03509451734930777</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5000317335.199635</v>
+        <v>4044087446.130115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1924851585615105</v>
+        <v>0.1935633333159789</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04717334641550746</v>
+        <v>0.05197462184880149</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>357</v>
+      </c>
+      <c r="J10" t="n">
+        <v>464</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +818,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3118540750.006109</v>
+        <v>4269943847.469823</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1694220203348853</v>
+        <v>0.1418718360645124</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03323473734365418</v>
+        <v>0.03356030671494099</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>193</v>
+      </c>
+      <c r="J11" t="n">
+        <v>463</v>
+      </c>
+      <c r="K11" t="n">
+        <v>37.1558433701117</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2355512914.629584</v>
+        <v>2241132557.514209</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1665600501992587</v>
+        <v>0.1213472394185073</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0523804482385463</v>
+        <v>0.03614239611162526</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4725886680.762776</v>
+        <v>5025646849.482075</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06441623757072908</v>
+        <v>0.08204076541619779</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02194749236056467</v>
+        <v>0.02549678497988673</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>241</v>
+      </c>
+      <c r="J13" t="n">
+        <v>463</v>
+      </c>
+      <c r="K13" t="n">
+        <v>33.23113997421478</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +927,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3783672598.79199</v>
+        <v>3895000231.546814</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1301498173596711</v>
+        <v>0.1173009349883687</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02698869425528562</v>
+        <v>0.04087184692209268</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>105</v>
+      </c>
+      <c r="J14" t="n">
+        <v>464</v>
+      </c>
+      <c r="K14" t="n">
+        <v>50.0751558255628</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1842118940.056455</v>
+        <v>1182564839.51907</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08743173328278374</v>
+        <v>0.06687389645856794</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04334465934447612</v>
+        <v>0.03732874640977451</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2358805019.280577</v>
+        <v>2865531064.66607</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1090716719137276</v>
+        <v>0.07521042026435246</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03578325972345256</v>
+        <v>0.05073193067100248</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3243851831.753025</v>
+        <v>3644861696.147893</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1666259654277453</v>
+        <v>0.1619709414881915</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03414349344349368</v>
+        <v>0.04249872297030367</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>227</v>
+      </c>
+      <c r="J17" t="n">
+        <v>463</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.21357439340062</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2551197818.253634</v>
+        <v>2995303274.26614</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1796996840684918</v>
+        <v>0.1493936511769533</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03273232809025932</v>
+        <v>0.03436953019218955</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>125</v>
+      </c>
+      <c r="J18" t="n">
+        <v>463</v>
+      </c>
+      <c r="K18" t="n">
+        <v>25.959346183718</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1007096662.477561</v>
+        <v>947948952.2066295</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1877654577841545</v>
+        <v>0.1789632915092722</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02054518285479003</v>
+        <v>0.01702461858994232</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2443902732.857209</v>
+        <v>2454297465.272195</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1545228571448076</v>
+        <v>0.1322497982850517</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02629947764709803</v>
+        <v>0.03163187764722455</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2709540840.557559</v>
+        <v>2126580377.07247</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0671505176618393</v>
+        <v>0.07157417709500971</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03375074021219929</v>
+        <v>0.03393672215914186</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1207,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3561276159.129197</v>
+        <v>3527414609.709095</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1249567000659974</v>
+        <v>0.08834545530514659</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05033001879871087</v>
+        <v>0.04905888319330116</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>134</v>
+      </c>
+      <c r="J22" t="n">
+        <v>464</v>
+      </c>
+      <c r="K22" t="n">
+        <v>37.21951393461318</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1087369625.051204</v>
+        <v>1371439989.162987</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1778231468935817</v>
+        <v>0.1276315175501369</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04513566774521657</v>
+        <v>0.05013249972537805</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4093472773.71982</v>
+        <v>2554283824.547983</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09781751884085185</v>
+        <v>0.1435200591350587</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02536593132981247</v>
+        <v>0.0371686077701676</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>147</v>
+      </c>
+      <c r="J24" t="n">
+        <v>462</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>987800537.4833177</v>
+        <v>991487986.0462598</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1144615815049992</v>
+        <v>0.1200907238533897</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02498505952693968</v>
+        <v>0.02131956092146966</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1418301445.152613</v>
+        <v>1016574166.040108</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09721107112057402</v>
+        <v>0.08250158629263628</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0341015931070883</v>
+        <v>0.03643104673561042</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3032173620.251411</v>
+        <v>2948089790.82408</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1321254460078742</v>
+        <v>0.1362069069692492</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02707127660428605</v>
+        <v>0.02195404257598816</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>204</v>
+      </c>
+      <c r="J27" t="n">
+        <v>463</v>
+      </c>
+      <c r="K27" t="n">
+        <v>20.81948483422616</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2361024499.579841</v>
+        <v>3528353816.119946</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1198243985922766</v>
+        <v>0.105843034175298</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03072490862832364</v>
+        <v>0.03621528618653307</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>115</v>
+      </c>
+      <c r="J28" t="n">
+        <v>464</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1462,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5352233987.230226</v>
+        <v>5742610820.888204</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1494545536655615</v>
+        <v>0.09516754890303403</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03309187202229651</v>
+        <v>0.04297521081809311</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>373</v>
+      </c>
+      <c r="J29" t="n">
+        <v>463</v>
+      </c>
+      <c r="K29" t="n">
+        <v>30.41397552168018</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1499,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2171383320.121722</v>
+        <v>1824438011.899355</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1100996787298146</v>
+        <v>0.09757641191277622</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02723361425709006</v>
+        <v>0.03610260214261161</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1534,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1475521384.987411</v>
+        <v>1366494418.221385</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1055164524975321</v>
+        <v>0.08061842367172366</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04531036578542933</v>
+        <v>0.04814959857344964</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1876931512.406008</v>
+        <v>1255578075.307914</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1136106380865164</v>
+        <v>0.09206192813374457</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03425960911321849</v>
+        <v>0.02607892971815501</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1993576642.910323</v>
+        <v>1896682527.516131</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2062274420013902</v>
+        <v>0.1737848811689983</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0573638280513254</v>
+        <v>0.05169854160918385</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1257673440.670659</v>
+        <v>1441532141.274354</v>
       </c>
       <c r="F34" t="n">
-        <v>0.11477055142161</v>
+        <v>0.1197040900137443</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02228308142386009</v>
+        <v>0.02029792448641692</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1674,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>913141782.6466569</v>
+        <v>841850205.3509011</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08497012338974809</v>
+        <v>0.1114221997316672</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03163885439560213</v>
+        <v>0.03758142275606254</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2720521241.403802</v>
+        <v>2181506630.558403</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1719404090455026</v>
+        <v>0.1726973848659402</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01954509945929875</v>
+        <v>0.02053834375592666</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1744,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2187870053.629411</v>
+        <v>1822328290.790202</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1041217539050713</v>
+        <v>0.1074875828123933</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03321020276589803</v>
+        <v>0.03070565505943579</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1767450279.341613</v>
+        <v>1741480767.854132</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07506703953723823</v>
+        <v>0.09080034799989124</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02810480526905509</v>
+        <v>0.02602652015666727</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1814,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1553419836.731676</v>
+        <v>1640887617.094226</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1276443391224384</v>
+        <v>0.1747803197221066</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02684477537916436</v>
+        <v>0.02040017763612238</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1380345661.571691</v>
+        <v>1698643063.604816</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1095722465109736</v>
+        <v>0.1160760060855619</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04642146653555313</v>
+        <v>0.0440270416860519</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1870560342.776251</v>
+        <v>2839409511.152786</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1192336613753985</v>
+        <v>0.1310895235935686</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03704227207607134</v>
+        <v>0.04316778370897212</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1913,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3153614226.601615</v>
+        <v>3122368420.347578</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09106124320783134</v>
+        <v>0.1222183826647325</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03635130609573234</v>
+        <v>0.04320896480889062</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>204</v>
+      </c>
+      <c r="J42" t="n">
+        <v>463</v>
+      </c>
+      <c r="K42" t="n">
+        <v>23.73925151204881</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1950,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2825785657.342679</v>
+        <v>2439227432.679323</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1363648003066969</v>
+        <v>0.1827060852119282</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0182062422966294</v>
+        <v>0.02233085634361124</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1985,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1462594271.358736</v>
+        <v>1541828802.166911</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07326806197511831</v>
+        <v>0.08358483374373807</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02992599735193319</v>
+        <v>0.03227681517379652</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2026,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2206289715.688394</v>
+        <v>1882853844.778816</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1432939658042721</v>
+        <v>0.1383890429410575</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05498297929184885</v>
+        <v>0.04162832450356353</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2055,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4724554866.887568</v>
+        <v>4278656241.955142</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1540411805323545</v>
+        <v>0.160753656075891</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03778520603284598</v>
+        <v>0.05289492623717199</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>275</v>
+      </c>
+      <c r="J46" t="n">
+        <v>463</v>
+      </c>
+      <c r="K46" t="n">
+        <v>33.47657461899668</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2092,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4194773706.086193</v>
+        <v>4024739953.271901</v>
       </c>
       <c r="F47" t="n">
-        <v>0.190690265746269</v>
+        <v>0.1876730115806495</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04926722781924749</v>
+        <v>0.04617168969746094</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>209</v>
+      </c>
+      <c r="J47" t="n">
+        <v>464</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2127,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3449686929.117381</v>
+        <v>3276606238.363961</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08966443475758347</v>
+        <v>0.0977615719392757</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03853922581682709</v>
+        <v>0.03327194037243756</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>231</v>
+      </c>
+      <c r="J48" t="n">
+        <v>461</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1578793770.348739</v>
+        <v>1709307907.354768</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1846038472723503</v>
+        <v>0.1281745426185524</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02944221928436311</v>
+        <v>0.04343645619369686</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2686085293.698383</v>
+        <v>3747663062.471752</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1280762062736552</v>
+        <v>0.1427189944851165</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04457620712723733</v>
+        <v>0.03794329680737543</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>165</v>
+      </c>
+      <c r="J50" t="n">
+        <v>464</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1453585281.666952</v>
+        <v>1003695990.545206</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1493466349484095</v>
+        <v>0.1857445565541801</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04129001851606782</v>
+        <v>0.05231909876066553</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3380318823.866463</v>
+        <v>5056159889.465411</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1002988436591171</v>
+        <v>0.1301219696341484</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05497199322095686</v>
+        <v>0.04374340423426106</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>263</v>
+      </c>
+      <c r="J52" t="n">
+        <v>463</v>
+      </c>
+      <c r="K52" t="n">
+        <v>31.69010194622347</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2471156558.731945</v>
+        <v>2501701887.206605</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1887586195067378</v>
+        <v>0.183136358995764</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02436679670798512</v>
+        <v>0.02506093460477673</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2345,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4575438576.31749</v>
+        <v>4744098977.150093</v>
       </c>
       <c r="F54" t="n">
-        <v>0.113585861706009</v>
+        <v>0.1155906346512269</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04666763600771625</v>
+        <v>0.04206626495161074</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>246</v>
+      </c>
+      <c r="J54" t="n">
+        <v>463</v>
+      </c>
+      <c r="K54" t="n">
+        <v>33.61353835706362</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2376,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3852071997.197752</v>
+        <v>3194440847.131982</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1515442552854963</v>
+        <v>0.1660649566946298</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02072255383457648</v>
+        <v>0.02511576254585376</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>230</v>
+      </c>
+      <c r="J55" t="n">
+        <v>461</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1865601399.245179</v>
+        <v>1817283816.811822</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1123110931015102</v>
+        <v>0.153661534378438</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03869702888072445</v>
+        <v>0.04317962602315781</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2446,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3705732162.118815</v>
+        <v>4113098647.022603</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1548137508209214</v>
+        <v>0.1123513965985512</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0170194262202456</v>
+        <v>0.02022706843837178</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>198</v>
+      </c>
+      <c r="J57" t="n">
+        <v>464</v>
+      </c>
+      <c r="K57" t="n">
+        <v>37.24528974488082</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2489,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1826806998.229524</v>
+        <v>1373788022.389137</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1323627263681798</v>
+        <v>0.1265803806741541</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02681113697299124</v>
+        <v>0.0267903527635972</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2524,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3473479064.127359</v>
+        <v>4223297759.362601</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1168899466592141</v>
+        <v>0.1120922492509731</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03565682156849916</v>
+        <v>0.04825476502406057</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>227</v>
+      </c>
+      <c r="J59" t="n">
+        <v>464</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2553,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2782964864.167607</v>
+        <v>3433161311.271557</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1249345415425713</v>
+        <v>0.182185522586361</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03324371372230495</v>
+        <v>0.02526111366903177</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>89</v>
+      </c>
+      <c r="J60" t="n">
+        <v>464</v>
+      </c>
+      <c r="K60" t="n">
+        <v>49.15076154722348</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2590,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3194357859.120636</v>
+        <v>2692610638.25673</v>
       </c>
       <c r="F61" t="n">
-        <v>0.135666791644334</v>
+        <v>0.1481658369831097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0254807563935555</v>
+        <v>0.02687465408814091</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2631,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1422944938.371346</v>
+        <v>1400515423.313012</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1564859721884412</v>
+        <v>0.1664571038639421</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04334202345585414</v>
+        <v>0.04935434510893565</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2660,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3769131322.039798</v>
+        <v>5173274729.078434</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08727282168656891</v>
+        <v>0.09697514895177241</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0298866822989146</v>
+        <v>0.04457437159812735</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>233</v>
+      </c>
+      <c r="J63" t="n">
+        <v>463</v>
+      </c>
+      <c r="K63" t="n">
+        <v>29.15629459820548</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2697,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5185156453.674015</v>
+        <v>3733886387.784956</v>
       </c>
       <c r="F64" t="n">
-        <v>0.133732878242411</v>
+        <v>0.1411948514173753</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03342045988053584</v>
+        <v>0.02965118058072986</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>232</v>
+      </c>
+      <c r="J64" t="n">
+        <v>464</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2738,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3649907374.559175</v>
+        <v>4939717806.33806</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1226700392208595</v>
+        <v>0.1694257757747819</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03105080264628225</v>
+        <v>0.02901645351238694</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>329</v>
+      </c>
+      <c r="J65" t="n">
+        <v>464</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2767,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3821299549.843688</v>
+        <v>4212578899.406696</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1622675563282102</v>
+        <v>0.1433291903928738</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03447610783023608</v>
+        <v>0.03652350387232846</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>229</v>
+      </c>
+      <c r="J66" t="n">
+        <v>463</v>
+      </c>
+      <c r="K66" t="n">
+        <v>33.91728975339558</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2804,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3367582682.460245</v>
+        <v>2657608253.528208</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09786200325792005</v>
+        <v>0.07410858862641446</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04870746271575774</v>
+        <v>0.03500299409491027</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2839,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4769368592.80461</v>
+        <v>5720284207.451254</v>
       </c>
       <c r="F68" t="n">
-        <v>0.131397891453104</v>
+        <v>0.1261360036753569</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03996432777524336</v>
+        <v>0.0499598713511182</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>252</v>
+      </c>
+      <c r="J68" t="n">
+        <v>464</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2346627081.593514</v>
+        <v>1807501427.331954</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1163057280506708</v>
+        <v>0.1607092783417647</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05211663045446648</v>
+        <v>0.05332172764237389</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2799858783.858986</v>
+        <v>3613011647.111833</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07412530652970899</v>
+        <v>0.09199477102547396</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03879861582837618</v>
+        <v>0.04052912434341024</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>67</v>
+      </c>
+      <c r="J70" t="n">
+        <v>464</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2944,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5573775529.093138</v>
+        <v>4014324117.125892</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1126040727820968</v>
+        <v>0.1635859082362642</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02637285217260313</v>
+        <v>0.03015182269454961</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>316</v>
+      </c>
+      <c r="J71" t="n">
+        <v>463</v>
+      </c>
+      <c r="K71" t="n">
+        <v>31.38343440631209</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2981,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1514408027.880025</v>
+        <v>1579649947.023973</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0957820591721625</v>
+        <v>0.08998398280574271</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03939533323348323</v>
+        <v>0.03264006012505594</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3016,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2542044225.355748</v>
+        <v>2721405935.435853</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08194629872718399</v>
+        <v>0.08554192599679927</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04566578443504816</v>
+        <v>0.05030589703145352</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3057,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2472093984.469869</v>
+        <v>2628335308.38376</v>
       </c>
       <c r="F74" t="n">
-        <v>0.150689654980614</v>
+        <v>0.1496966766063441</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03386170207119905</v>
+        <v>0.02566036614678195</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>135</v>
+      </c>
+      <c r="J74" t="n">
+        <v>463</v>
+      </c>
+      <c r="K74" t="n">
+        <v>21.69152592544073</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3088,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2064365821.848817</v>
+        <v>1569068655.630225</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1075362220132592</v>
+        <v>0.136391893305482</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02392200232188221</v>
+        <v>0.03377171845604047</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3123,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4880006680.143318</v>
+        <v>4273468979.744848</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1224357358357643</v>
+        <v>0.1018159042075368</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03372766788256466</v>
+        <v>0.02936297367538474</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>221</v>
+      </c>
+      <c r="J76" t="n">
+        <v>464</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3164,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1987388281.477674</v>
+        <v>1403321770.480892</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1868894739639751</v>
+        <v>0.1203291825180923</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02421462889617932</v>
+        <v>0.02266696707173278</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3193,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4587789537.944992</v>
+        <v>3096705758.503346</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09346832671284346</v>
+        <v>0.09350128747912302</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04950507375788912</v>
+        <v>0.03824758356914248</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>231</v>
+      </c>
+      <c r="J78" t="n">
+        <v>462</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1707420888.641075</v>
+        <v>1377543007.880779</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1318871482512984</v>
+        <v>0.152555077211064</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02982575906120243</v>
+        <v>0.0357165710814862</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4911752586.025541</v>
+        <v>4264529523.53947</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0794844384870451</v>
+        <v>0.09172900452696206</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03150091192193562</v>
+        <v>0.0320603750294212</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>226</v>
+      </c>
+      <c r="J80" t="n">
+        <v>464</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4650231386.971582</v>
+        <v>3392969631.085124</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1360278019892108</v>
+        <v>0.09071146120042271</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03150867785915229</v>
+        <v>0.02081756417159247</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>216</v>
+      </c>
+      <c r="J81" t="n">
+        <v>462</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3339,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5381462625.62109</v>
+        <v>3676668677.724366</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1660796631763454</v>
+        <v>0.1773386967850553</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01916223781135611</v>
+        <v>0.02558977376822558</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>308</v>
+      </c>
+      <c r="J82" t="n">
+        <v>463</v>
+      </c>
+      <c r="K82" t="n">
+        <v>28.47077748393319</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2108937720.859491</v>
+        <v>1936404068.890738</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1083865569765156</v>
+        <v>0.150175390838634</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04447622828925207</v>
+        <v>0.03333912113337881</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3411,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2099319618.252986</v>
+        <v>2558496346.802002</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1081595755402665</v>
+        <v>0.1058618518802983</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04519613090008261</v>
+        <v>0.04505940404373887</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3078125110.317544</v>
+        <v>2277592561.620482</v>
       </c>
       <c r="F85" t="n">
-        <v>0.114912103695937</v>
+        <v>0.1153616926398429</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03847255979041903</v>
+        <v>0.04671551338669101</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2020222159.798734</v>
+        <v>1847818734.007674</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1519380276859472</v>
+        <v>0.1532882869743058</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02416374936207072</v>
+        <v>0.02406492400583614</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3516,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1500705341.418787</v>
+        <v>1509309316.764165</v>
       </c>
       <c r="F87" t="n">
-        <v>0.119419901408985</v>
+        <v>0.1881679561220293</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03352045125798446</v>
+        <v>0.02919414420504194</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3551,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2955657265.786152</v>
+        <v>3307522993.838066</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1357782266529075</v>
+        <v>0.1730724025698562</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03041726412529439</v>
+        <v>0.03080931003606313</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3586,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2891336518.026655</v>
+        <v>2429586748.050817</v>
       </c>
       <c r="F89" t="n">
-        <v>0.119496953528598</v>
+        <v>0.1487432430590279</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03566308005163571</v>
+        <v>0.02893844553687347</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1643656315.136302</v>
+        <v>2047223225.380986</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09398725422988938</v>
+        <v>0.1009966665610085</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05206640182285053</v>
+        <v>0.05327401051966804</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1829310251.056138</v>
+        <v>1914369447.459227</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1717390749649954</v>
+        <v>0.184083545034093</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06035283529106544</v>
+        <v>0.04131103279351633</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2282208088.989425</v>
+        <v>2335547175.727292</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09138396614400635</v>
+        <v>0.07611849706441456</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04034461097074466</v>
+        <v>0.04277913747688676</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4029169824.419446</v>
+        <v>4546521500.100613</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1356831392530725</v>
+        <v>0.08998656655200445</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04372000315747403</v>
+        <v>0.03838582530180991</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>223</v>
+      </c>
+      <c r="J93" t="n">
+        <v>464</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1841805681.136047</v>
+        <v>2313906567.025748</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1213086498803428</v>
+        <v>0.1435206166986723</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0371719209821495</v>
+        <v>0.03027888052081475</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2906566871.540008</v>
+        <v>3105582884.993923</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1174210323651072</v>
+        <v>0.08747733754831427</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0373038113498021</v>
+        <v>0.0344458006547363</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2058661428.941692</v>
+        <v>1582169528.215492</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1139614578202431</v>
+        <v>0.1289749900348269</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04242693197760505</v>
+        <v>0.04682378588113169</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4615948276.435036</v>
+        <v>3428567233.178782</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1624708537736953</v>
+        <v>0.1670458441682721</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01977794174565755</v>
+        <v>0.02375566463121523</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>240</v>
+      </c>
+      <c r="J97" t="n">
+        <v>464</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2758758239.114842</v>
+        <v>3824415323.720242</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1013563493182536</v>
+        <v>0.08234182201029704</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02252801134684872</v>
+        <v>0.02311158712134247</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>116</v>
+      </c>
+      <c r="J98" t="n">
+        <v>464</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2829280259.34157</v>
+        <v>2629637444.908477</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1406776199367016</v>
+        <v>0.1042218407509895</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03345823564900534</v>
+        <v>0.03102466672096696</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4012031756.306123</v>
+        <v>3377914241.228691</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1727517469444809</v>
+        <v>0.1550349041683148</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01842226172135543</v>
+        <v>0.01728888469732022</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>216</v>
+      </c>
+      <c r="J100" t="n">
+        <v>462</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2173647593.930282</v>
+        <v>3245988752.246769</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1507816737121732</v>
+        <v>0.2049952496542056</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04408682715149277</v>
+        <v>0.05697077557056914</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
